--- a/assignment-2/jointDistributionCheck.xlsx
+++ b/assignment-2/jointDistributionCheck.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="8860" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="3260" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Check" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -73,8 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -415,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,12 +428,12 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -563,27 +564,7 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -924,7 +905,7 @@
   <dimension ref="B1:T130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -941,7 +922,7 @@
     <row r="1" spans="2:20">
       <c r="S1">
         <f>MATCH(R2,B2:H2,0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:20" s="1" customFormat="1" ht="50" customHeight="1">
@@ -991,11 +972,11 @@
         <v>12</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S2" s="9" t="str">
         <f>"P("&amp;R2&amp;")"</f>
-        <v>P(Sore Throat)</v>
+        <v>P(Wheezing)</v>
       </c>
     </row>
     <row r="3" spans="2:20">
@@ -1048,9 +1029,9 @@
       <c r="R3" s="10">
         <v>1</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="14">
         <f>SUMIF(INDEX($B$3:$H$130,,$S$1),R3,$P$3:$P$130)</f>
-        <v>1.5950000000000002E-2</v>
+        <v>0.10820662399999999</v>
       </c>
     </row>
     <row r="4" spans="2:20">
@@ -1103,9 +1084,9 @@
       <c r="R4" s="10">
         <v>0</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="14">
         <f>SUMIF(INDEX($B$3:$H$130,,$S$1),R4,$P$3:$P$130)</f>
-        <v>0.98404999999999976</v>
+        <v>0.89179337600000019</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -1155,9 +1136,9 @@
         <f t="shared" si="0"/>
         <v>1.1148839999999999E-4</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <f>SUM(S3:S4)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -1207,10 +1188,10 @@
         <f t="shared" si="0"/>
         <v>6.7072146114599996E-4</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="13">
         <f>MAX(P3:P130)</f>
         <v>0.67005073968485396</v>
       </c>
@@ -7169,7 +7150,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:P130">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$S$6=$P3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7179,7 +7160,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
